--- a/単体テスト仕様書.xlsx
+++ b/単体テスト仕様書.xlsx
@@ -461,22 +461,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザー「hoge」がカートに入れた商品のみが購入履歴画面に表示されていること。</t>
-    <rPh sb="15" eb="16">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="23" eb="29">
-      <t>コウニュウリレキガメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新規でユーザー「hoge」を作成し、ログイン後、カートに商品を入れ、精算画面で完了を押下し、買物完了画面から「■購入履歴を確認する」をクリックする。</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -553,6 +537,28 @@
       <t>カキ</t>
     </rPh>
     <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー「hoge」が買い物完了した物のみが購入履歴画面に表示されていること。</t>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="22" eb="28">
+      <t>コウニュウリレキガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1151,10 +1157,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1168,10 +1174,10 @@
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1185,10 +1191,10 @@
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1307,6 +1313,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004A9798E776DBBC46B7EE0663EF8453C0" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="70db7a13778fef64cc044704d6d0f103">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="acd6f55e-aed4-41bf-bd4c-a7a91db4fbf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1164ebcb7e6792d311a3803522668e9f" ns2:_="">
     <xsd:import namespace="acd6f55e-aed4-41bf-bd4c-a7a91db4fbf9"/>
@@ -1470,15 +1485,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A16F1E5-EABC-48C4-8F8D-0A1FBD95D3D3}">
   <ds:schemaRefs>
@@ -1496,6 +1502,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B999039-258B-4C5F-8AF2-6127AE768D29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DA7C081-93D0-48DA-8993-4B8885A94853}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1511,12 +1525,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B999039-258B-4C5F-8AF2-6127AE768D29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/単体テスト仕様書.xlsx
+++ b/単体テスト仕様書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -531,17 +531,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下記のメッセージが表示される。
- ログインしていません。</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザー「hoge」が買い物完了した物のみが購入履歴画面に表示されていること。</t>
     <rPh sb="11" eb="12">
       <t>カ</t>
@@ -560,6 +549,59 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2021/6/17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>比嘉</t>
+    <rPh sb="0" eb="2">
+      <t>ヒガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">下記のメッセージが表示される。
+ ログインしていません。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ログイン画面に遷移すること。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -568,7 +610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +632,21 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1026,9 +1083,15 @@
       <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="2:8" ht="27" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
@@ -1043,9 +1106,15 @@
       <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
@@ -1060,9 +1129,15 @@
       <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="27" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
@@ -1077,9 +1152,15 @@
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="27" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
@@ -1094,9 +1175,15 @@
       <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
@@ -1111,9 +1198,15 @@
       <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="121.5" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
@@ -1128,9 +1221,15 @@
       <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
@@ -1145,9 +1244,15 @@
       <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="54" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
@@ -1160,11 +1265,17 @@
         <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="27" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
@@ -1179,11 +1290,17 @@
       <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="27" x14ac:dyDescent="0.4">
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="54" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1194,11 +1311,17 @@
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
@@ -1313,15 +1436,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004A9798E776DBBC46B7EE0663EF8453C0" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="70db7a13778fef64cc044704d6d0f103">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="acd6f55e-aed4-41bf-bd4c-a7a91db4fbf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1164ebcb7e6792d311a3803522668e9f" ns2:_="">
     <xsd:import namespace="acd6f55e-aed4-41bf-bd4c-a7a91db4fbf9"/>
@@ -1485,6 +1599,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A16F1E5-EABC-48C4-8F8D-0A1FBD95D3D3}">
   <ds:schemaRefs>
@@ -1502,14 +1625,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B999039-258B-4C5F-8AF2-6127AE768D29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DA7C081-93D0-48DA-8993-4B8885A94853}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1525,4 +1640,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B999039-258B-4C5F-8AF2-6127AE768D29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>